--- a/data/TestConfiguration.xlsx
+++ b/data/TestConfiguration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEDGE_New\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEDGE_TESTING_Frmaework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Description</t>
   </si>
@@ -81,6 +81,42 @@
   </si>
   <si>
     <t>SEDGE</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>testautomationreport@trackdfect.com</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>TD@welcomeTest</t>
+  </si>
+  <si>
+    <t>Receiver</t>
+  </si>
+  <si>
+    <t>Manage Wait times (Seconds)</t>
+  </si>
+  <si>
+    <t>Wait Time</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>vignesh.g@trackdfect.com</t>
   </si>
 </sst>
 </file>
@@ -222,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -247,6 +283,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -381,7 +423,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C13" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" name="Description" dataDxfId="2"/>
     <tableColumn id="2" name="Components" dataDxfId="1"/>
@@ -688,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -752,37 +794,86 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>"Remote,local"</formula1>
     </dataValidation>
@@ -797,13 +888,19 @@
       <formula1>"Sequential,Parallel"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/TestConfiguration.xlsx
+++ b/data/TestConfiguration.xlsx
@@ -113,10 +113,10 @@
     <t>120</t>
   </si>
   <si>
+    <t>vignesh.g@trackdfect.com</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>vignesh.g@trackdfect.com</t>
   </si>
 </sst>
 </file>
@@ -733,7 +733,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +800,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/TestConfiguration.xlsx
+++ b/data/TestConfiguration.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Description</t>
   </si>
@@ -68,18 +68,12 @@
     <t>/data/TestExecution.xlsx</t>
   </si>
   <si>
-    <t>Extent Report Configuration</t>
-  </si>
-  <si>
     <t>Project_Name</t>
   </si>
   <si>
     <t>Version_Name</t>
   </si>
   <si>
-    <t>V1.0.0</t>
-  </si>
-  <si>
     <t>SEDGE</t>
   </si>
   <si>
@@ -104,26 +98,26 @@
     <t>Receiver</t>
   </si>
   <si>
-    <t>Manage Wait times (Seconds)</t>
-  </si>
-  <si>
-    <t>Wait Time</t>
-  </si>
-  <si>
-    <t>120</t>
+    <t>Email Report Configuration</t>
+  </si>
+  <si>
+    <t>v8.4.1</t>
   </si>
   <si>
     <t>vignesh.g@trackdfect.com</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>DashPro_Heat_Map_Legend_Execution</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +147,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -286,7 +287,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -733,14 +734,14 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -794,51 +795,49 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -854,22 +853,22 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -899,8 +898,9 @@
     <hyperlink ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>